--- a/TNXP.xlsx
+++ b/TNXP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{726FB5C6-9B8B-4689-B986-5A769934E58A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B07AAE4-5277-432B-B1DD-FFD396CAAE8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28575" yWindow="840" windowWidth="28260" windowHeight="20325" xr2:uid="{A1383063-078E-461D-882D-3C2F776DD187}"/>
+    <workbookView xWindow="-30420" yWindow="2250" windowWidth="26790" windowHeight="16290" activeTab="1" xr2:uid="{A1383063-078E-461D-882D-3C2F776DD187}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -181,17 +181,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -576,13 +570,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20EAC0AE-CC6A-4507-ADA5-3317A0BAC50D}">
   <dimension ref="B2:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.2">
@@ -700,11 +695,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DF290F0-C900-4A58-8CD3-F6714C302E50}">
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomRight" activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
